--- a/biology/Médecine/Patella_bipartita/Patella_bipartita.xlsx
+++ b/biology/Médecine/Patella_bipartita/Patella_bipartita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La patella bipartita (ou patella partita) est une division de la patella en deux parties plus ou moins importantes par une fissure.
 Cette anomalie provient d'un défaut de fusion des centres d'ossifications de la patella et peut disparaitre en fin de croissance. Elle est présente pour environ 1 à 2% de la population. Elle est ordinairement asymptomatique et peut devenir symptomatique dans environ 2% des cas.
